--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3427,28 +3427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.924910115884</v>
+        <v>259.2537035842009</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.8569173577714</v>
+        <v>354.722354710091</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.0937308591705</v>
+        <v>320.8681510325108</v>
       </c>
       <c r="AD2" t="n">
-        <v>227924.910115884</v>
+        <v>259253.7035842009</v>
       </c>
       <c r="AE2" t="n">
-        <v>311856.9173577714</v>
+        <v>354722.354710091</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.105447643684417e-06</v>
+        <v>5.249913322163248e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.525607638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>282093.7308591706</v>
+        <v>320868.1510325108</v>
       </c>
     </row>
     <row r="3">
@@ -3533,28 +3533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.6031311272701</v>
+        <v>147.3468481904109</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.2239893442074</v>
+        <v>201.6064581781913</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.6917349226405</v>
+        <v>182.3654207661632</v>
       </c>
       <c r="AD3" t="n">
-        <v>126603.1311272701</v>
+        <v>147346.8481904109</v>
       </c>
       <c r="AE3" t="n">
-        <v>173223.9893442074</v>
+        <v>201606.4581781913</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.72376110413305e-06</v>
+        <v>7.985752521617732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.290364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>156691.7349226405</v>
+        <v>182365.4207661632</v>
       </c>
     </row>
     <row r="4">
@@ -3639,28 +3639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.5262201259769</v>
+        <v>122.3551885351383</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.9126533970216</v>
+        <v>167.4117668836548</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.6550247219808</v>
+        <v>151.4342228162157</v>
       </c>
       <c r="AD4" t="n">
-        <v>101526.2201259769</v>
+        <v>122355.1885351383</v>
       </c>
       <c r="AE4" t="n">
-        <v>138912.6533970216</v>
+        <v>167411.7668836548</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.345392155864834e-06</v>
+        <v>9.036650657541575e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.791232638888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>125655.0247219808</v>
+        <v>151434.2228162157</v>
       </c>
     </row>
     <row r="5">
@@ -3745,28 +3745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.08340170935853</v>
+        <v>115.9123701185199</v>
       </c>
       <c r="AB5" t="n">
-        <v>130.0973050023207</v>
+        <v>158.5964184889539</v>
       </c>
       <c r="AC5" t="n">
-        <v>117.6810008056481</v>
+        <v>143.4601988998831</v>
       </c>
       <c r="AD5" t="n">
-        <v>95083.40170935853</v>
+        <v>115912.3701185199</v>
       </c>
       <c r="AE5" t="n">
-        <v>130097.3050023207</v>
+        <v>158596.4184889539</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.677215039291502e-06</v>
+        <v>9.597613705765263e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.569878472222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>117681.0008056481</v>
+        <v>143460.1988998831</v>
       </c>
     </row>
     <row r="6">
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.75437998046542</v>
+        <v>112.4127561890346</v>
       </c>
       <c r="AB6" t="n">
-        <v>125.5423906067781</v>
+        <v>153.8080923185643</v>
       </c>
       <c r="AC6" t="n">
-        <v>113.5608010471521</v>
+        <v>139.128863858736</v>
       </c>
       <c r="AD6" t="n">
-        <v>91754.37998046541</v>
+        <v>112412.7561890346</v>
       </c>
       <c r="AE6" t="n">
-        <v>125542.3906067781</v>
+        <v>153808.0923185644</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.858438510515802e-06</v>
+        <v>9.903980975490133e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.459201388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>113560.8010471521</v>
+        <v>139128.863858736</v>
       </c>
     </row>
     <row r="7">
@@ -3957,28 +3957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>89.29697166632704</v>
+        <v>109.9553478748962</v>
       </c>
       <c r="AB7" t="n">
-        <v>122.1800561381722</v>
+        <v>150.4457578499585</v>
       </c>
       <c r="AC7" t="n">
-        <v>110.5193630611629</v>
+        <v>136.0874258727468</v>
       </c>
       <c r="AD7" t="n">
-        <v>89296.97166632704</v>
+        <v>109955.3478748962</v>
       </c>
       <c r="AE7" t="n">
-        <v>122180.0561381722</v>
+        <v>150445.7578499586</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.97495932045291e-06</v>
+        <v>1.010096518600875e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.391927083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>110519.3630611629</v>
+        <v>136087.4258727468</v>
       </c>
     </row>
     <row r="8">
@@ -4063,28 +4063,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>87.07847821430956</v>
+        <v>107.7368544228787</v>
       </c>
       <c r="AB8" t="n">
-        <v>119.1446155240998</v>
+        <v>147.4103172358861</v>
       </c>
       <c r="AC8" t="n">
-        <v>107.7736206390289</v>
+        <v>133.3416834506129</v>
       </c>
       <c r="AD8" t="n">
-        <v>87078.47821430955</v>
+        <v>107736.8544228787</v>
       </c>
       <c r="AE8" t="n">
-        <v>119144.6155240998</v>
+        <v>147410.3172358861</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.068325354056362e-06</v>
+        <v>1.025880509828328e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.33984375</v>
       </c>
       <c r="AH8" t="n">
-        <v>107773.6206390289</v>
+        <v>133341.6834506129</v>
       </c>
     </row>
     <row r="9">
@@ -4169,28 +4169,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>85.18387064241972</v>
+        <v>95.59844435555145</v>
       </c>
       <c r="AB9" t="n">
-        <v>116.5523298600545</v>
+        <v>130.8020090729194</v>
       </c>
       <c r="AC9" t="n">
-        <v>105.4287390804634</v>
+        <v>118.3184489088075</v>
       </c>
       <c r="AD9" t="n">
-        <v>85183.87064241972</v>
+        <v>95598.44435555144</v>
       </c>
       <c r="AE9" t="n">
-        <v>116552.3298600545</v>
+        <v>130802.0090729194</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.164585734701522e-06</v>
+        <v>1.042153804783833e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.287760416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>105428.7390804634</v>
+        <v>118318.4489088075</v>
       </c>
     </row>
     <row r="10">
@@ -4275,28 +4275,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>83.41094422660264</v>
+        <v>93.82551793973435</v>
       </c>
       <c r="AB10" t="n">
-        <v>114.1265337219415</v>
+        <v>128.3762129348065</v>
       </c>
       <c r="AC10" t="n">
-        <v>103.234457521145</v>
+        <v>116.124167349489</v>
       </c>
       <c r="AD10" t="n">
-        <v>83410.94422660263</v>
+        <v>93825.51793973436</v>
       </c>
       <c r="AE10" t="n">
-        <v>114126.5337219415</v>
+        <v>128376.2129348065</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.225460388610972e-06</v>
+        <v>1.052444967064132e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>103234.457521145</v>
+        <v>116124.167349489</v>
       </c>
     </row>
     <row r="11">
@@ -4381,28 +4381,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>82.56762624908426</v>
+        <v>92.98219996221597</v>
       </c>
       <c r="AB11" t="n">
-        <v>112.9726688605381</v>
+        <v>127.222348073403</v>
       </c>
       <c r="AC11" t="n">
-        <v>102.190715902654</v>
+        <v>115.080425730998</v>
       </c>
       <c r="AD11" t="n">
-        <v>82567.62624908425</v>
+        <v>92982.19996221598</v>
       </c>
       <c r="AE11" t="n">
-        <v>112972.668860538</v>
+        <v>127222.348073403</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.250575851650302e-06</v>
+        <v>1.056690860704317e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.2421875</v>
       </c>
       <c r="AH11" t="n">
-        <v>102190.715902654</v>
+        <v>115080.425730998</v>
       </c>
     </row>
     <row r="12">
@@ -4487,28 +4487,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>82.71999985602132</v>
+        <v>93.13457356915305</v>
       </c>
       <c r="AB12" t="n">
-        <v>113.1811531517983</v>
+        <v>127.4308323646633</v>
       </c>
       <c r="AC12" t="n">
-        <v>102.379302745766</v>
+        <v>115.26901257411</v>
       </c>
       <c r="AD12" t="n">
-        <v>82719.99985602131</v>
+        <v>93134.57356915304</v>
       </c>
       <c r="AE12" t="n">
-        <v>113181.1531517983</v>
+        <v>127430.8323646633</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.251229413885525e-06</v>
+        <v>1.056801348642909e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.2421875</v>
       </c>
       <c r="AH12" t="n">
-        <v>102379.302745766</v>
+        <v>115269.01257411</v>
       </c>
     </row>
   </sheetData>
@@ -4784,28 +4784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.0723147253251</v>
+        <v>197.3440182569051</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.5957117174135</v>
+        <v>270.0147919826058</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.7788578272658</v>
+        <v>244.2449592040057</v>
       </c>
       <c r="AD2" t="n">
-        <v>167072.3147253251</v>
+        <v>197344.0182569051</v>
       </c>
       <c r="AE2" t="n">
-        <v>228595.7117174135</v>
+        <v>270014.7919826058</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.792829959429373e-06</v>
+        <v>6.568388816652259e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.52734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>206778.8578272658</v>
+        <v>244244.9592040057</v>
       </c>
     </row>
     <row r="3">
@@ -4890,28 +4890,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.8163251026576</v>
+        <v>118.9974607903776</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.2048554739872</v>
+        <v>162.8175756507821</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.3010938287925</v>
+        <v>147.2784947466191</v>
       </c>
       <c r="AD3" t="n">
-        <v>98816.3251026576</v>
+        <v>118997.4607903776</v>
       </c>
       <c r="AE3" t="n">
-        <v>135204.8554739872</v>
+        <v>162817.5756507821</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.31058009267629e-06</v>
+        <v>9.196814849015539e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.947482638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>122301.0938287925</v>
+        <v>147278.4947466191</v>
       </c>
     </row>
     <row r="4">
@@ -4996,28 +4996,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.01993232076789</v>
+        <v>109.2010680084879</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.8009986834651</v>
+        <v>149.41371886026</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.1764823179224</v>
+        <v>135.1538832357489</v>
       </c>
       <c r="AD4" t="n">
-        <v>89019.9323207679</v>
+        <v>109201.0680084879</v>
       </c>
       <c r="AE4" t="n">
-        <v>121800.9986834651</v>
+        <v>149413.71886026</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.853296014702154e-06</v>
+        <v>1.013668540239783e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.580729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>110176.4823179224</v>
+        <v>135153.8832357489</v>
       </c>
     </row>
     <row r="5">
@@ -5102,28 +5102,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.03492154076125</v>
+        <v>104.0454650278891</v>
       </c>
       <c r="AB5" t="n">
-        <v>114.9802870111092</v>
+        <v>142.3595954130573</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.006729794645</v>
+        <v>128.7729954298205</v>
       </c>
       <c r="AD5" t="n">
-        <v>84034.92154076125</v>
+        <v>104045.465027889</v>
       </c>
       <c r="AE5" t="n">
-        <v>114980.2870111092</v>
+        <v>142359.5954130572</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.154933641412738e-06</v>
+        <v>1.065905873185376e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.404947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>104006.729794645</v>
+        <v>128772.9954298205</v>
       </c>
     </row>
     <row r="6">
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>81.21052324399675</v>
+        <v>101.2210667311245</v>
       </c>
       <c r="AB6" t="n">
-        <v>111.1158206578191</v>
+        <v>138.4951290597672</v>
       </c>
       <c r="AC6" t="n">
-        <v>100.5110826862991</v>
+        <v>125.2773483214746</v>
       </c>
       <c r="AD6" t="n">
-        <v>81210.52324399675</v>
+        <v>101221.0667311245</v>
       </c>
       <c r="AE6" t="n">
-        <v>111115.8206578191</v>
+        <v>138495.1290597672</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.311306141458987e-06</v>
+        <v>1.09298632212515e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.3203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>100511.0826862991</v>
+        <v>125277.3483214747</v>
       </c>
     </row>
     <row r="7">
@@ -5314,28 +5314,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>78.67983942508933</v>
+        <v>88.77049677750037</v>
       </c>
       <c r="AB7" t="n">
-        <v>107.6532274109012</v>
+        <v>121.4597099688471</v>
       </c>
       <c r="AC7" t="n">
-        <v>97.37895447908583</v>
+        <v>109.8677657192257</v>
       </c>
       <c r="AD7" t="n">
-        <v>78679.83942508933</v>
+        <v>88770.49677750038</v>
       </c>
       <c r="AE7" t="n">
-        <v>107653.2274109012</v>
+        <v>121459.7099688471</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.433100905238061e-06</v>
+        <v>1.114078629792263e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.257378472222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>97378.95447908583</v>
+        <v>109867.7657192257</v>
       </c>
     </row>
     <row r="8">
@@ -5420,28 +5420,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>77.29365093029064</v>
+        <v>87.3843082827017</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.7565831579983</v>
+        <v>119.5630657159442</v>
       </c>
       <c r="AC8" t="n">
-        <v>95.66332329172242</v>
+        <v>108.1521345318623</v>
       </c>
       <c r="AD8" t="n">
-        <v>77293.65093029063</v>
+        <v>87384.30828270169</v>
       </c>
       <c r="AE8" t="n">
-        <v>105756.5831579983</v>
+        <v>119563.0657159442</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.488927529714116e-06</v>
+        <v>1.12374663441684e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>95663.32329172242</v>
+        <v>108152.1345318623</v>
       </c>
     </row>
     <row r="9">
@@ -5526,28 +5526,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>77.15311325371513</v>
+        <v>87.24377060612618</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.5642933088231</v>
+        <v>119.3707758667689</v>
       </c>
       <c r="AC9" t="n">
-        <v>95.48938531587191</v>
+        <v>107.9781965560118</v>
       </c>
       <c r="AD9" t="n">
-        <v>77153.11325371513</v>
+        <v>87243.77060612617</v>
       </c>
       <c r="AE9" t="n">
-        <v>105564.2933088231</v>
+        <v>119370.7758667689</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.487575327737188e-06</v>
+        <v>1.123512461294445e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.231336805555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>95489.38531587191</v>
+        <v>107978.1965560118</v>
       </c>
     </row>
   </sheetData>
@@ -5823,28 +5823,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.44497342077477</v>
+        <v>94.67570464620526</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.59538514847</v>
+        <v>129.5394758941897</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.61294839047149</v>
+        <v>117.1764101246789</v>
       </c>
       <c r="AD2" t="n">
-        <v>76444.97342077477</v>
+        <v>94675.70464620527</v>
       </c>
       <c r="AE2" t="n">
-        <v>104595.38514847</v>
+        <v>129539.4758941897</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.01226989753067e-06</v>
+        <v>1.137650842480111e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.891059027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>94612.94839047149</v>
+        <v>117176.4101246789</v>
       </c>
     </row>
     <row r="3">
@@ -5929,28 +5929,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.27739305767247</v>
+        <v>82.33753208251075</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.9471648999213</v>
+        <v>112.6578438707942</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.55361091651511</v>
+        <v>101.9059373680715</v>
       </c>
       <c r="AD3" t="n">
-        <v>64277.39305767247</v>
+        <v>82337.53208251075</v>
       </c>
       <c r="AE3" t="n">
-        <v>87947.16489992131</v>
+        <v>112657.8438707942</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.066963331558369e-06</v>
+        <v>1.337221536116579e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.309461805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>79553.61091651511</v>
+        <v>101905.9373680715</v>
       </c>
     </row>
     <row r="4">
@@ -6035,28 +6035,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.64858539713502</v>
+        <v>72.7640405184013</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.08680251773828</v>
+        <v>99.55897036014652</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.77536031256119</v>
+        <v>90.05720196089145</v>
       </c>
       <c r="AD4" t="n">
-        <v>63648.58539713502</v>
+        <v>72764.04051840131</v>
       </c>
       <c r="AE4" t="n">
-        <v>87086.80251773828</v>
+        <v>99558.97036014652</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.149304000227607e-06</v>
+        <v>1.352802162515339e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.272569444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>78775.36031256118</v>
+        <v>90057.20196089144</v>
       </c>
     </row>
   </sheetData>
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.7609417030793</v>
+        <v>124.6689519150034</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.7067862815409</v>
+        <v>170.5775600160208</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.8961736961199</v>
+        <v>154.2978770952483</v>
       </c>
       <c r="AD2" t="n">
-        <v>105760.9417030793</v>
+        <v>124668.9519150034</v>
       </c>
       <c r="AE2" t="n">
-        <v>144706.7862815409</v>
+        <v>170577.5600160208</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.114761216645154e-06</v>
+        <v>9.317984139585117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>130896.1736961199</v>
+        <v>154297.8770952483</v>
       </c>
     </row>
     <row r="3">
@@ -6438,28 +6438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.01459210889881</v>
+        <v>95.00785366684347</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.0065184504782</v>
+        <v>129.9939368376073</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.0802823036562</v>
+        <v>117.5874979534968</v>
       </c>
       <c r="AD3" t="n">
-        <v>76014.59210889881</v>
+        <v>95007.85366684347</v>
       </c>
       <c r="AE3" t="n">
-        <v>104006.5184504782</v>
+        <v>129993.9368376073</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.369969212521503e-06</v>
+        <v>1.160470050855137e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.513454861111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>94080.2823036562</v>
+        <v>117587.4979534968</v>
       </c>
     </row>
     <row r="4">
@@ -6544,28 +6544,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.07442371985957</v>
+        <v>79.57114400738294</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.87891799886482</v>
+        <v>108.8727496619777</v>
       </c>
       <c r="AC4" t="n">
-        <v>86.72836863198339</v>
+        <v>98.48208723813025</v>
       </c>
       <c r="AD4" t="n">
-        <v>70074.42371985957</v>
+        <v>79571.14400738294</v>
       </c>
       <c r="AE4" t="n">
-        <v>95878.91799886482</v>
+        <v>108872.7496619778</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.823634004854012e-06</v>
+        <v>1.24311792356297e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.279079861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>86728.36863198338</v>
+        <v>98482.08723813025</v>
       </c>
     </row>
     <row r="5">
@@ -6650,28 +6650,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.56231434143011</v>
+        <v>78.0590346289535</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.80998323774102</v>
+        <v>106.803814900854</v>
       </c>
       <c r="AC5" t="n">
-        <v>84.8568901006924</v>
+        <v>96.61060870683926</v>
       </c>
       <c r="AD5" t="n">
-        <v>68562.31434143012</v>
+        <v>78059.03462895349</v>
       </c>
       <c r="AE5" t="n">
-        <v>93809.98323774102</v>
+        <v>106803.814900854</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.924780632417236e-06</v>
+        <v>1.26154464245533e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.231336805555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>84856.8901006924</v>
+        <v>96610.60870683925</v>
       </c>
     </row>
   </sheetData>
@@ -6947,28 +6947,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.73161020432024</v>
+        <v>81.33691013845466</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.20040072172502</v>
+        <v>111.2887487826126</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.87811686339553</v>
+        <v>100.6675067935685</v>
       </c>
       <c r="AD2" t="n">
-        <v>63731.61020432024</v>
+        <v>81336.91013845465</v>
       </c>
       <c r="AE2" t="n">
-        <v>87200.40072172502</v>
+        <v>111288.7487826126</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.801344584776644e-06</v>
+        <v>1.332844398975623e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.572048611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>78878.11686339554</v>
+        <v>100667.5067935686</v>
       </c>
     </row>
     <row r="3">
@@ -7053,28 +7053,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.96824548698457</v>
+        <v>77.40295322052677</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.0511990875353</v>
+        <v>105.906135373576</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.22034780622134</v>
+        <v>95.79860245374331</v>
       </c>
       <c r="AD3" t="n">
-        <v>59968.24548698457</v>
+        <v>77402.95322052678</v>
       </c>
       <c r="AE3" t="n">
-        <v>82051.19908753529</v>
+        <v>105906.135373576</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.230612161265542e-06</v>
+        <v>1.416967012946057e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>74220.34780622134</v>
+        <v>95798.60245374331</v>
       </c>
     </row>
   </sheetData>
@@ -7350,28 +7350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.2231384609209</v>
+        <v>207.7502579309688</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.4845165751861</v>
+        <v>284.2530681955461</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.3421346424771</v>
+        <v>257.1243543187335</v>
       </c>
       <c r="AD2" t="n">
-        <v>177223.1384609209</v>
+        <v>207750.2579309688</v>
       </c>
       <c r="AE2" t="n">
-        <v>242484.5165751861</v>
+        <v>284253.068195546</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.622647914581723e-06</v>
+        <v>6.232697657663666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.733506944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>219342.1346424771</v>
+        <v>257124.3543187335</v>
       </c>
     </row>
     <row r="3">
@@ -7456,28 +7456,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.9107700876872</v>
+        <v>133.1769317216985</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.4894969055231</v>
+        <v>182.2185533331138</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.745236148273</v>
+        <v>164.8278703483983</v>
       </c>
       <c r="AD3" t="n">
-        <v>112910.7700876872</v>
+        <v>133176.9317216985</v>
       </c>
       <c r="AE3" t="n">
-        <v>154489.4969055231</v>
+        <v>182218.5533331138</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.166200118733832e-06</v>
+        <v>8.888350217377365e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.021267361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>139745.236148273</v>
+        <v>164827.8703483983</v>
       </c>
     </row>
     <row r="4">
@@ -7562,28 +7562,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.13361225926079</v>
+        <v>112.4850252392927</v>
       </c>
       <c r="AB4" t="n">
-        <v>126.061272941173</v>
+        <v>153.9069740214129</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.0301619798085</v>
+        <v>139.2183084306461</v>
       </c>
       <c r="AD4" t="n">
-        <v>92133.61225926079</v>
+        <v>112485.0252392927</v>
       </c>
       <c r="AE4" t="n">
-        <v>126061.272941173</v>
+        <v>153906.9740214129</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.718972906714634e-06</v>
+        <v>9.839385410999254e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.6328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>114030.1619798085</v>
+        <v>139218.3084306461</v>
       </c>
     </row>
     <row r="5">
@@ -7668,28 +7668,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.21548671331539</v>
+        <v>107.3963074927551</v>
       </c>
       <c r="AB5" t="n">
-        <v>119.3320765968279</v>
+        <v>146.944365902221</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.9431906900792</v>
+        <v>132.9202018582657</v>
       </c>
       <c r="AD5" t="n">
-        <v>87215.48671331539</v>
+        <v>107396.3074927551</v>
       </c>
       <c r="AE5" t="n">
-        <v>119332.0765968279</v>
+        <v>146944.365902221</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.002490308965567e-06</v>
+        <v>1.032717177351147e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.461371527777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>107943.1906900792</v>
+        <v>132920.2018582657</v>
       </c>
     </row>
     <row r="6">
@@ -7774,28 +7774,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.76730669990603</v>
+        <v>103.9481274793457</v>
       </c>
       <c r="AB6" t="n">
-        <v>114.6141245795177</v>
+        <v>142.2264138849108</v>
       </c>
       <c r="AC6" t="n">
-        <v>103.6755133916123</v>
+        <v>128.6525245597989</v>
       </c>
       <c r="AD6" t="n">
-        <v>83767.30669990602</v>
+        <v>103948.1274793457</v>
       </c>
       <c r="AE6" t="n">
-        <v>114614.1245795177</v>
+        <v>142226.4138849108</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.203977186662466e-06</v>
+        <v>1.067382616010438e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.348524305555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>103675.5133916123</v>
+        <v>128652.5245597989</v>
       </c>
     </row>
     <row r="7">
@@ -7880,28 +7880,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>81.48442334495354</v>
+        <v>91.66021934352051</v>
       </c>
       <c r="AB7" t="n">
-        <v>111.4905828595677</v>
+        <v>125.413555869236</v>
       </c>
       <c r="AC7" t="n">
-        <v>100.850078109495</v>
+        <v>113.4442621161403</v>
       </c>
       <c r="AD7" t="n">
-        <v>81484.42334495354</v>
+        <v>91660.21934352051</v>
       </c>
       <c r="AE7" t="n">
-        <v>111490.5828595677</v>
+        <v>125413.555869236</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.310703014991227e-06</v>
+        <v>1.08574459420764e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.292100694444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>100850.078109495</v>
+        <v>113444.2621161403</v>
       </c>
     </row>
     <row r="8">
@@ -7986,28 +7986,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>79.44479171957693</v>
+        <v>89.62058771814391</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.6998688875321</v>
+        <v>122.6228418972004</v>
       </c>
       <c r="AC8" t="n">
-        <v>98.32570596215793</v>
+        <v>110.9198899688033</v>
       </c>
       <c r="AD8" t="n">
-        <v>79444.79171957693</v>
+        <v>89620.58771814391</v>
       </c>
       <c r="AE8" t="n">
-        <v>108699.8688875321</v>
+        <v>122622.8418972004</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.403166826798926e-06</v>
+        <v>1.101652819264588e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.244357638888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>98325.70596215792</v>
+        <v>110919.8899688033</v>
       </c>
     </row>
     <row r="9">
@@ -8092,28 +8092,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>78.7860838946355</v>
+        <v>88.96187989320246</v>
       </c>
       <c r="AB9" t="n">
-        <v>107.7985957813094</v>
+        <v>121.7215687909777</v>
       </c>
       <c r="AC9" t="n">
-        <v>97.51044909624808</v>
+        <v>110.1046331028934</v>
       </c>
       <c r="AD9" t="n">
-        <v>78786.08389463549</v>
+        <v>88961.87989320247</v>
       </c>
       <c r="AE9" t="n">
-        <v>107798.5957813094</v>
+        <v>121721.5687909777</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.426330638866693e-06</v>
+        <v>1.105638109599766e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.231336805555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>97510.44909624808</v>
+        <v>110104.6331028935</v>
       </c>
     </row>
     <row r="10">
@@ -8198,28 +8198,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>78.99587558096252</v>
+        <v>89.1716715795295</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.0856420218979</v>
+        <v>122.0086150315662</v>
       </c>
       <c r="AC10" t="n">
-        <v>97.77010004650683</v>
+        <v>110.3642840531522</v>
       </c>
       <c r="AD10" t="n">
-        <v>78995.87558096251</v>
+        <v>89171.6715795295</v>
       </c>
       <c r="AE10" t="n">
-        <v>108085.6420218979</v>
+        <v>122008.6150315662</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.423171937221087e-06</v>
+        <v>1.105094660917696e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.233506944444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>97770.10004650682</v>
+        <v>110364.2840531522</v>
       </c>
     </row>
   </sheetData>
@@ -8495,28 +8495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.88844052391511</v>
+        <v>74.95279928916524</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.20551818254583</v>
+        <v>102.5537266715262</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.64625469286494</v>
+        <v>92.76614293308091</v>
       </c>
       <c r="AD2" t="n">
-        <v>57888.44052391512</v>
+        <v>74952.79928916524</v>
       </c>
       <c r="AE2" t="n">
-        <v>79205.51818254583</v>
+        <v>102553.7266715262</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.206085071844623e-06</v>
+        <v>1.444575321397986e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.450520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71646.25469286494</v>
+        <v>92766.14293308092</v>
       </c>
     </row>
     <row r="3">
@@ -8601,28 +8601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.97016788107359</v>
+        <v>75.03452664632371</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.31734115816651</v>
+        <v>102.6655496471469</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.74740544063695</v>
+        <v>92.86729368085295</v>
       </c>
       <c r="AD3" t="n">
-        <v>57970.16788107359</v>
+        <v>75034.52664632371</v>
       </c>
       <c r="AE3" t="n">
-        <v>79317.34115816651</v>
+        <v>102665.549647147</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.216852903671819e-06</v>
+        <v>1.44673390597858e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.444010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>71747.40544063695</v>
+        <v>92867.29368085295</v>
       </c>
     </row>
   </sheetData>
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.6181579803027</v>
+        <v>157.9755723586755</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.981037981236</v>
+        <v>216.1491474914203</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.185654707294</v>
+        <v>195.5201762221348</v>
       </c>
       <c r="AD2" t="n">
-        <v>128618.1579803027</v>
+        <v>157975.5723586755</v>
       </c>
       <c r="AE2" t="n">
-        <v>175981.037981236</v>
+        <v>216149.1474914202</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.403665226047902e-06</v>
+        <v>7.799218338041854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.904513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>159185.654707294</v>
+        <v>195520.1762221348</v>
       </c>
     </row>
     <row r="3">
@@ -9004,28 +9004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.32730910835272</v>
+        <v>106.9558125969823</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.4850769309738</v>
+        <v>146.3416613525617</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.0815888870716</v>
+        <v>132.3750185849247</v>
       </c>
       <c r="AD3" t="n">
-        <v>87327.30910835273</v>
+        <v>106955.8125969823</v>
       </c>
       <c r="AE3" t="n">
-        <v>119485.0769309738</v>
+        <v>146341.6613525618</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.800733293219701e-06</v>
+        <v>1.027352969680009e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.723958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>108081.5888870716</v>
+        <v>132375.0185849247</v>
       </c>
     </row>
     <row r="4">
@@ -9110,28 +9110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.90078273635264</v>
+        <v>99.35869402439008</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.3237759135882</v>
+        <v>135.9469485603293</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.89006817730647</v>
+        <v>122.9723625925085</v>
       </c>
       <c r="AD4" t="n">
-        <v>79900.78273635264</v>
+        <v>99358.69402439008</v>
       </c>
       <c r="AE4" t="n">
-        <v>109323.7759135882</v>
+        <v>135946.9485603293</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.284368224942399e-06</v>
+        <v>1.113008309829343e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>98890.06817730647</v>
+        <v>122972.3625925086</v>
       </c>
     </row>
     <row r="5">
@@ -9216,28 +9216,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.85772647113841</v>
+        <v>85.67206772400426</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.791887964471</v>
+        <v>117.2203026448133</v>
       </c>
       <c r="AC5" t="n">
-        <v>93.88613584999769</v>
+        <v>106.0329614801508</v>
       </c>
       <c r="AD5" t="n">
-        <v>75857.72647113841</v>
+        <v>85672.06772400427</v>
       </c>
       <c r="AE5" t="n">
-        <v>103791.887964471</v>
+        <v>117220.3026448133</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.548377170181147e-06</v>
+        <v>1.159766255799752e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.298611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>93886.13584999769</v>
+        <v>106032.9614801508</v>
       </c>
     </row>
     <row r="6">
@@ -9322,28 +9322,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>73.1643070393051</v>
+        <v>82.97864829217096</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.1066326725594</v>
+        <v>113.5350473529018</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.55259615085673</v>
+        <v>102.6994217810098</v>
       </c>
       <c r="AD6" t="n">
-        <v>73164.3070393051</v>
+        <v>82978.64829217095</v>
       </c>
       <c r="AE6" t="n">
-        <v>100106.6326725594</v>
+        <v>113535.0473529018</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.692173976012278e-06</v>
+        <v>1.185233738621931e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.226996527777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>90552.59615085673</v>
+        <v>102699.4217810098</v>
       </c>
     </row>
     <row r="7">
@@ -9428,28 +9428,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>72.7478965515164</v>
+        <v>82.56223780438226</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.53688147243304</v>
+        <v>112.9652961527754</v>
       </c>
       <c r="AC7" t="n">
-        <v>90.0372212056194</v>
+        <v>102.1840468357725</v>
       </c>
       <c r="AD7" t="n">
-        <v>72747.8965515164</v>
+        <v>82562.23780438227</v>
       </c>
       <c r="AE7" t="n">
-        <v>99536.88147243304</v>
+        <v>112965.2961527754</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.722525550945493e-06</v>
+        <v>1.190609228075747e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.211805555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>90037.2212056194</v>
+        <v>102184.0468357725</v>
       </c>
     </row>
   </sheetData>
@@ -9725,28 +9725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.1576584000986</v>
+        <v>186.9936412809829</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.0300415294786</v>
+        <v>255.852949577751</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.5078761625254</v>
+        <v>231.434703161995</v>
       </c>
       <c r="AD2" t="n">
-        <v>157157.6584000986</v>
+        <v>186993.6412809829</v>
       </c>
       <c r="AE2" t="n">
-        <v>215030.0415294786</v>
+        <v>255852.949577751</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.978913330068566e-06</v>
+        <v>6.938877412093387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.316840277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>194507.8761625254</v>
+        <v>231434.703161995</v>
       </c>
     </row>
     <row r="3">
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.73448069024185</v>
+        <v>114.7388640778929</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.6198958706566</v>
+        <v>156.9907757527361</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.2491549314619</v>
+        <v>142.0077964528757</v>
       </c>
       <c r="AD3" t="n">
-        <v>94734.48069024185</v>
+        <v>114738.8640778929</v>
       </c>
       <c r="AE3" t="n">
-        <v>129619.8958706566</v>
+        <v>156990.7757527361</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.475685985672431e-06</v>
+        <v>9.549118226469135e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.865017361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>117249.1549314619</v>
+        <v>142007.7964528757</v>
       </c>
     </row>
     <row r="4">
@@ -9937,28 +9937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.71364086073805</v>
+        <v>105.7180242483891</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.2771848445698</v>
+        <v>144.6480647266493</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.0844149225972</v>
+        <v>130.843056444011</v>
       </c>
       <c r="AD4" t="n">
-        <v>85713.64086073806</v>
+        <v>105718.0242483891</v>
       </c>
       <c r="AE4" t="n">
-        <v>117277.1848445698</v>
+        <v>144648.0647266493</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.007566308538635e-06</v>
+        <v>1.047667106618119e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.522135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>106084.4149225972</v>
+        <v>130843.056444011</v>
       </c>
     </row>
     <row r="5">
@@ -10043,28 +10043,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.58073813281879</v>
+        <v>101.4145293198776</v>
       </c>
       <c r="AB5" t="n">
-        <v>111.6223650014334</v>
+        <v>138.7598331086661</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.9692831486985</v>
+        <v>125.5167893874612</v>
       </c>
       <c r="AD5" t="n">
-        <v>81580.73813281879</v>
+        <v>101414.5293198776</v>
       </c>
       <c r="AE5" t="n">
-        <v>111622.3650014334</v>
+        <v>138759.8331086661</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.267607522302918e-06</v>
+        <v>1.093016023639421e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.376736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>100969.2831486985</v>
+        <v>125516.7893874612</v>
       </c>
     </row>
     <row r="6">
@@ -10149,28 +10149,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>78.43349859256557</v>
+        <v>88.43577979494212</v>
       </c>
       <c r="AB6" t="n">
-        <v>107.3161730160519</v>
+        <v>121.00173542664</v>
       </c>
       <c r="AC6" t="n">
-        <v>97.07406808262196</v>
+        <v>109.4534996245554</v>
       </c>
       <c r="AD6" t="n">
-        <v>78433.49859256556</v>
+        <v>88435.77979494212</v>
       </c>
       <c r="AE6" t="n">
-        <v>107316.1730160519</v>
+        <v>121001.73542664</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.444673455634728e-06</v>
+        <v>1.123894776286847e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.283420138888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>97074.06808262196</v>
+        <v>109453.4996245554</v>
       </c>
     </row>
     <row r="7">
@@ -10255,28 +10255,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>76.10679021752533</v>
+        <v>86.10907141990188</v>
       </c>
       <c r="AB7" t="n">
-        <v>104.1326679701944</v>
+        <v>117.8182303807826</v>
       </c>
       <c r="AC7" t="n">
-        <v>94.19439229026271</v>
+        <v>106.5738238321962</v>
       </c>
       <c r="AD7" t="n">
-        <v>76106.79021752533</v>
+        <v>86109.07141990188</v>
       </c>
       <c r="AE7" t="n">
-        <v>104132.6679701944</v>
+        <v>117818.2303807826</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.553584605156551e-06</v>
+        <v>1.142887929759961e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>94194.39229026271</v>
+        <v>106573.8238321962</v>
       </c>
     </row>
     <row r="8">
@@ -10361,28 +10361,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>75.58849915338311</v>
+        <v>85.59078035575966</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.4235192708474</v>
+        <v>117.1090816814355</v>
       </c>
       <c r="AC8" t="n">
-        <v>93.55292374748471</v>
+        <v>105.9323552894182</v>
       </c>
       <c r="AD8" t="n">
-        <v>75588.49915338311</v>
+        <v>85590.78035575966</v>
       </c>
       <c r="AE8" t="n">
-        <v>103423.5192708474</v>
+        <v>117109.0816814355</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.58371311473779e-06</v>
+        <v>1.14814207875118e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.213975694444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>93552.92374748472</v>
+        <v>105932.3552894182</v>
       </c>
     </row>
   </sheetData>
@@ -10658,28 +10658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.4207612147724</v>
+        <v>244.3477858402996</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.0117009533914</v>
+        <v>334.327420450048</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.1425140554821</v>
+        <v>302.4196806738765</v>
       </c>
       <c r="AD2" t="n">
-        <v>213420.7612147724</v>
+        <v>244347.7858402996</v>
       </c>
       <c r="AE2" t="n">
-        <v>292011.7009533914</v>
+        <v>334327.420450048</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.267959152094784e-06</v>
+        <v>5.555313970062582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>264142.5140554821</v>
+        <v>302419.6806738765</v>
       </c>
     </row>
     <row r="3">
@@ -10764,28 +10764,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.0324618683827</v>
+        <v>142.6220611700605</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.9701980205043</v>
+        <v>195.141796134059</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.0347966656184</v>
+        <v>176.5177369943106</v>
       </c>
       <c r="AD3" t="n">
-        <v>122032.4618683827</v>
+        <v>142622.0611700605</v>
       </c>
       <c r="AE3" t="n">
-        <v>166970.1980205043</v>
+        <v>195141.796134059</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.861093944361242e-06</v>
+        <v>8.263537529710647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.201388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>151034.7966656184</v>
+        <v>176517.7369943106</v>
       </c>
     </row>
     <row r="4">
@@ -10870,28 +10870,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.18509337992617</v>
+        <v>118.8599440276246</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.3411763829683</v>
+        <v>162.6294191491722</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.5198430580389</v>
+        <v>147.1082956374434</v>
       </c>
       <c r="AD4" t="n">
-        <v>98185.09337992617</v>
+        <v>118859.9440276246</v>
       </c>
       <c r="AE4" t="n">
-        <v>134341.1763829683</v>
+        <v>162629.4191491722</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.474612712720472e-06</v>
+        <v>9.306478774119067e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.73046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>121519.8430580389</v>
+        <v>147108.2956374434</v>
       </c>
     </row>
     <row r="5">
@@ -10976,28 +10976,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>92.71836904238418</v>
+        <v>113.3932196900826</v>
       </c>
       <c r="AB5" t="n">
-        <v>126.8613629694906</v>
+        <v>155.1496057356945</v>
       </c>
       <c r="AC5" t="n">
-        <v>114.7538925387571</v>
+        <v>140.3423451181616</v>
       </c>
       <c r="AD5" t="n">
-        <v>92718.36904238418</v>
+        <v>113393.2196900826</v>
       </c>
       <c r="AE5" t="n">
-        <v>126861.3629694906</v>
+        <v>155149.6057356945</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.770690338929728e-06</v>
+        <v>9.809791115721903e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.539496527777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>114753.8925387571</v>
+        <v>140342.3451181616</v>
       </c>
     </row>
     <row r="6">
@@ -11082,28 +11082,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.99742056983281</v>
+        <v>109.5016790169391</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.7701971126874</v>
+        <v>149.8250281040444</v>
       </c>
       <c r="AC6" t="n">
-        <v>110.1486204058294</v>
+        <v>135.5259377025828</v>
       </c>
       <c r="AD6" t="n">
-        <v>88997.42056983282</v>
+        <v>109501.679016939</v>
       </c>
       <c r="AE6" t="n">
-        <v>121770.1971126874</v>
+        <v>149825.0281040444</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.969832187963035e-06</v>
+        <v>1.014831906067791e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.420138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>110148.6204058294</v>
+        <v>135525.9377025828</v>
       </c>
     </row>
     <row r="7">
@@ -11188,28 +11188,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>86.64429646133267</v>
+        <v>107.1485549084389</v>
       </c>
       <c r="AB7" t="n">
-        <v>118.5505488949301</v>
+        <v>146.6053798862872</v>
       </c>
       <c r="AC7" t="n">
-        <v>107.2362508951692</v>
+        <v>132.6135681919227</v>
       </c>
       <c r="AD7" t="n">
-        <v>86644.29646133268</v>
+        <v>107148.5549084389</v>
       </c>
       <c r="AE7" t="n">
-        <v>118550.5488949301</v>
+        <v>146605.3798862872</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.086343345384224e-06</v>
+        <v>1.034638030635633e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.355034722222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>107236.2508951692</v>
+        <v>132613.5681919227</v>
       </c>
     </row>
     <row r="8">
@@ -11294,28 +11294,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>84.71505372336972</v>
+        <v>105.219312170476</v>
       </c>
       <c r="AB8" t="n">
-        <v>115.9108738686679</v>
+        <v>143.9657048600249</v>
       </c>
       <c r="AC8" t="n">
-        <v>104.8485027486054</v>
+        <v>130.2258200453589</v>
       </c>
       <c r="AD8" t="n">
-        <v>84715.05372336973</v>
+        <v>105219.312170476</v>
       </c>
       <c r="AE8" t="n">
-        <v>115910.8738686679</v>
+        <v>143965.7048600249</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.174526668892828e-06</v>
+        <v>1.049628611184961e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.307291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>104848.5027486054</v>
+        <v>130225.8200453589</v>
       </c>
     </row>
     <row r="9">
@@ -11400,28 +11400,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>82.30882904486566</v>
+        <v>92.64634387726591</v>
       </c>
       <c r="AB9" t="n">
-        <v>112.6185711083995</v>
+        <v>126.7628149610498</v>
       </c>
       <c r="AC9" t="n">
-        <v>101.870412743</v>
+        <v>114.6647498139289</v>
       </c>
       <c r="AD9" t="n">
-        <v>82308.82904486566</v>
+        <v>92646.3438772659</v>
       </c>
       <c r="AE9" t="n">
-        <v>112618.5711083995</v>
+        <v>126762.8149610498</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.278144426825566e-06</v>
+        <v>1.067242943292549e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.253038194444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>101870.4127430001</v>
+        <v>114664.7498139289</v>
       </c>
     </row>
     <row r="10">
@@ -11506,28 +11506,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>81.620247420328</v>
+        <v>91.95776225272824</v>
       </c>
       <c r="AB10" t="n">
-        <v>111.6764233516302</v>
+        <v>125.8206672042806</v>
       </c>
       <c r="AC10" t="n">
-        <v>101.0181822458239</v>
+        <v>113.8125193167527</v>
       </c>
       <c r="AD10" t="n">
-        <v>81620.247420328</v>
+        <v>91957.76225272825</v>
       </c>
       <c r="AE10" t="n">
-        <v>111676.4233516302</v>
+        <v>125820.6672042806</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.294331760489899e-06</v>
+        <v>1.0699946827317e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.244357638888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>101018.1822458239</v>
+        <v>113812.5193167527</v>
       </c>
     </row>
     <row r="11">
@@ -11612,28 +11612,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>81.59145276285606</v>
+        <v>91.92896759525631</v>
       </c>
       <c r="AB11" t="n">
-        <v>111.6370252309465</v>
+        <v>125.7812690835968</v>
       </c>
       <c r="AC11" t="n">
-        <v>100.9825442264826</v>
+        <v>113.7768812974114</v>
       </c>
       <c r="AD11" t="n">
-        <v>81591.45276285606</v>
+        <v>91928.96759525631</v>
       </c>
       <c r="AE11" t="n">
-        <v>111637.0252309465</v>
+        <v>125781.2690835968</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.288685016188387e-06</v>
+        <v>1.06903477362502e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.248697916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>100982.5442264826</v>
+        <v>113776.8812974114</v>
       </c>
     </row>
   </sheetData>
@@ -11909,28 +11909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.0426410931697</v>
+        <v>132.3442746700491</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.6699286329624</v>
+        <v>181.0792752208111</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.9084477248831</v>
+        <v>163.7973233401466</v>
       </c>
       <c r="AD2" t="n">
-        <v>113042.6410931697</v>
+        <v>132344.2746700491</v>
       </c>
       <c r="AE2" t="n">
-        <v>154669.9286329624</v>
+        <v>181079.2752208111</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.859029852117134e-06</v>
+        <v>8.761980663911846e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.546440972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>139908.4477248831</v>
+        <v>163797.3233401466</v>
       </c>
     </row>
     <row r="3">
@@ -12015,28 +12015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.76831477364193</v>
+        <v>98.98460749594966</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.1425274029335</v>
+        <v>135.4351068685845</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.72611777012463</v>
+        <v>122.5093703534494</v>
       </c>
       <c r="AD3" t="n">
-        <v>79768.31477364193</v>
+        <v>98984.60749594966</v>
       </c>
       <c r="AE3" t="n">
-        <v>109142.5274029335</v>
+        <v>135435.1068685845</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.169086366809766e-06</v>
+        <v>1.112432257160093e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.580729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>98726.11777012463</v>
+        <v>122509.3703534494</v>
       </c>
     </row>
     <row r="4">
@@ -12121,28 +12121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.58137372057051</v>
+        <v>92.62707424228603</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.6772817055499</v>
+        <v>126.7364493963541</v>
       </c>
       <c r="AC4" t="n">
-        <v>91.06878324104967</v>
+        <v>114.6409005417234</v>
       </c>
       <c r="AD4" t="n">
-        <v>73581.37372057051</v>
+        <v>92627.07424228603</v>
       </c>
       <c r="AE4" t="n">
-        <v>100677.2817055499</v>
+        <v>126736.4493963541</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.618396959748181e-06</v>
+        <v>1.193453589550175e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.337673611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>91068.78324104968</v>
+        <v>114640.9005417234</v>
       </c>
     </row>
     <row r="5">
@@ -12227,28 +12227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.22761878369722</v>
+        <v>79.83585465340211</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.08852624369663</v>
+        <v>109.2349384460705</v>
       </c>
       <c r="AC5" t="n">
-        <v>86.9179721601155</v>
+        <v>98.80970923300444</v>
       </c>
       <c r="AD5" t="n">
-        <v>70227.61878369722</v>
+        <v>79835.85465340212</v>
       </c>
       <c r="AE5" t="n">
-        <v>96088.52624369663</v>
+        <v>109234.9384460705</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.832514380312306e-06</v>
+        <v>1.232064027351295e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.233506944444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>86917.9721601155</v>
+        <v>98809.70923300444</v>
       </c>
     </row>
     <row r="6">
@@ -12333,28 +12333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.13327121609056</v>
+        <v>79.74150708579548</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.95943573937635</v>
+        <v>109.1058479417502</v>
       </c>
       <c r="AC6" t="n">
-        <v>86.80120187234786</v>
+        <v>98.69293894523679</v>
       </c>
       <c r="AD6" t="n">
-        <v>70133.27121609056</v>
+        <v>79741.50708579547</v>
       </c>
       <c r="AE6" t="n">
-        <v>95959.43573937635</v>
+        <v>109105.8479417502</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.856033697549734e-06</v>
+        <v>1.236305116810191e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.22265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>86801.20187234785</v>
+        <v>98692.93894523679</v>
       </c>
     </row>
   </sheetData>
@@ -12630,28 +12630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.9851582376904</v>
+        <v>110.4033478906221</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.8581515995313</v>
+        <v>151.0587312358401</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.8464262539304</v>
+        <v>136.6418979389936</v>
       </c>
       <c r="AD2" t="n">
-        <v>91985.1582376904</v>
+        <v>110403.3478906221</v>
       </c>
       <c r="AE2" t="n">
-        <v>125858.1515995313</v>
+        <v>151058.7312358401</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.697314401702582e-06</v>
+        <v>1.062936756840304e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.040798611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>113846.4262539304</v>
+        <v>136641.8979389936</v>
       </c>
     </row>
     <row r="3">
@@ -12736,28 +12736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.114261061435</v>
+        <v>86.44710985979505</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.19693697333639</v>
+        <v>118.2807494874476</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.30235211134649</v>
+        <v>106.9922007644709</v>
       </c>
       <c r="AD3" t="n">
-        <v>68114.261061435</v>
+        <v>86447.10985979505</v>
       </c>
       <c r="AE3" t="n">
-        <v>93196.93697333639</v>
+        <v>118280.7494874476</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.837116666731671e-06</v>
+        <v>1.275587426543067e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.365885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>84302.3521113465</v>
+        <v>106992.2007644709</v>
       </c>
     </row>
     <row r="4">
@@ -12842,28 +12842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.34032257923296</v>
+        <v>74.59213258726012</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.4015119644606</v>
+        <v>102.060246578488</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.86915713840415</v>
+        <v>92.31975988751843</v>
       </c>
       <c r="AD4" t="n">
-        <v>65340.32257923296</v>
+        <v>74592.13258726013</v>
       </c>
       <c r="AE4" t="n">
-        <v>89401.5119644606</v>
+        <v>102060.246578488</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.057610656588885e-06</v>
+        <v>1.316724557120163e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.26171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>80869.15713840415</v>
+        <v>92319.75988751843</v>
       </c>
     </row>
   </sheetData>
@@ -23160,28 +23160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.19671983026116</v>
+        <v>88.13036512324634</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.04624893243984</v>
+        <v>120.5838535988817</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.87972973610847</v>
+        <v>109.0754998519374</v>
       </c>
       <c r="AD2" t="n">
-        <v>70196.71983026117</v>
+        <v>88130.36512324633</v>
       </c>
       <c r="AE2" t="n">
-        <v>96046.24893243983</v>
+        <v>120583.8535988817</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.373379242421477e-06</v>
+        <v>1.225624463107241e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.734809027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>86879.72973610848</v>
+        <v>109075.4998519374</v>
       </c>
     </row>
     <row r="3">
@@ -23266,28 +23266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.72472765795034</v>
+        <v>79.4877807503433</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.45449548437382</v>
+        <v>108.7586883759688</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.39427696799406</v>
+        <v>98.37891180117194</v>
       </c>
       <c r="AD3" t="n">
-        <v>61724.72765795034</v>
+        <v>79487.7807503433</v>
       </c>
       <c r="AE3" t="n">
-        <v>84454.49548437382</v>
+        <v>108758.6883759688</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.192597427423907e-06</v>
+        <v>1.383163158039792e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.309461805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>76394.27696799405</v>
+        <v>98378.91180117194</v>
       </c>
     </row>
     <row r="4">
@@ -23372,28 +23372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.95789258510082</v>
+        <v>79.72094567749379</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.77352202421156</v>
+        <v>109.0777149158066</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.68285606262636</v>
+        <v>98.66749089580422</v>
       </c>
       <c r="AD4" t="n">
-        <v>61957.89258510082</v>
+        <v>79720.94567749379</v>
       </c>
       <c r="AE4" t="n">
-        <v>84773.52202421156</v>
+        <v>109077.7149158066</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.192378003777194e-06</v>
+        <v>1.383120962058827e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.309461805555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>76682.85606262635</v>
+        <v>98667.49089580422</v>
       </c>
     </row>
   </sheetData>
@@ -23669,28 +23669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.40507911311001</v>
+        <v>72.20921261331506</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.80767354211078</v>
+        <v>98.79983034312824</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.57269557600702</v>
+        <v>89.37051320163744</v>
       </c>
       <c r="AD2" t="n">
-        <v>55405.07911311001</v>
+        <v>72209.21261331506</v>
       </c>
       <c r="AE2" t="n">
-        <v>75807.67354211077</v>
+        <v>98799.83034312824</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.118951194330883e-06</v>
+        <v>1.468354390224136e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.589409722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>68572.69557600703</v>
+        <v>89370.51320163744</v>
       </c>
     </row>
   </sheetData>
@@ -23966,28 +23966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.2019047931796</v>
+        <v>167.0224462421051</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.4081402276481</v>
+        <v>228.5274794586296</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.1860300024788</v>
+        <v>206.7171375594957</v>
       </c>
       <c r="AD2" t="n">
-        <v>147201.9047931796</v>
+        <v>167022.4462421051</v>
       </c>
       <c r="AE2" t="n">
-        <v>201408.1402276481</v>
+        <v>228527.4794586296</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.193036442538425e-06</v>
+        <v>7.366999623578811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.09765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>182186.0300024788</v>
+        <v>206717.1375594957</v>
       </c>
     </row>
     <row r="3">
@@ -24072,28 +24072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.03415416484887</v>
+        <v>110.8546061052234</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.5569458717316</v>
+        <v>151.6761626331647</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.6694057745377</v>
+        <v>137.2004025503281</v>
       </c>
       <c r="AD3" t="n">
-        <v>91034.15416484888</v>
+        <v>110854.6061052234</v>
       </c>
       <c r="AE3" t="n">
-        <v>124556.9458717316</v>
+        <v>151676.1626331647</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.630499815368538e-06</v>
+        <v>9.892566064908571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.795572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>112669.4057745377</v>
+        <v>137200.4025503281</v>
       </c>
     </row>
     <row r="4">
@@ -24178,28 +24178,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.13736681463629</v>
+        <v>102.7872265544186</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.7522130375057</v>
+        <v>140.6380180240921</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.8958614774692</v>
+        <v>127.2157229706086</v>
       </c>
       <c r="AD4" t="n">
-        <v>83137.36681463629</v>
+        <v>102787.2265544186</v>
       </c>
       <c r="AE4" t="n">
-        <v>113752.2130375057</v>
+        <v>140638.0180240921</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.123966209918904e-06</v>
+        <v>1.07595670539819e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.489583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>102895.8614774692</v>
+        <v>127215.7229706086</v>
       </c>
     </row>
     <row r="5">
@@ -24284,28 +24284,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.66626210692318</v>
+        <v>98.31612184670549</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.6346503251973</v>
+        <v>134.5204553117836</v>
       </c>
       <c r="AC5" t="n">
-        <v>97.3621503643684</v>
+        <v>121.6820118575077</v>
       </c>
       <c r="AD5" t="n">
-        <v>78666.26210692318</v>
+        <v>98316.12184670549</v>
       </c>
       <c r="AE5" t="n">
-        <v>107634.6503251973</v>
+        <v>134520.4553117836</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.398125148739144e-06</v>
+        <v>1.124125349452873e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.33984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>97362.1503643684</v>
+        <v>121682.0118575078</v>
       </c>
     </row>
     <row r="6">
@@ -24390,28 +24390,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>75.88302957075703</v>
+        <v>85.79334504949534</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.8265087816631</v>
+        <v>117.3862396319281</v>
       </c>
       <c r="AC6" t="n">
-        <v>93.91745250498765</v>
+        <v>106.1830616741094</v>
       </c>
       <c r="AD6" t="n">
-        <v>75883.02957075703</v>
+        <v>85793.34504949534</v>
       </c>
       <c r="AE6" t="n">
-        <v>103826.5087816631</v>
+        <v>117386.2396319281</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.567997336046943e-06</v>
+        <v>1.153971222654859e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.253038194444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>93917.45250498765</v>
+        <v>106183.0616741094</v>
       </c>
     </row>
     <row r="7">
@@ -24496,28 +24496,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>74.17148489410347</v>
+        <v>84.08180037284178</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.4846978470449</v>
+        <v>115.0444286973098</v>
       </c>
       <c r="AC7" t="n">
-        <v>91.79914071921634</v>
+        <v>104.0647498883381</v>
       </c>
       <c r="AD7" t="n">
-        <v>74171.48489410347</v>
+        <v>84081.80037284178</v>
       </c>
       <c r="AE7" t="n">
-        <v>101484.6978470449</v>
+        <v>115044.4286973098</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.647467976717896e-06</v>
+        <v>1.167933900726744e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.213975694444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>91799.14071921635</v>
+        <v>104064.7498883381</v>
       </c>
     </row>
     <row r="8">
@@ -24602,28 +24602,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>74.34891015299925</v>
+        <v>84.25922563173756</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.7274589137159</v>
+        <v>115.2871897639809</v>
       </c>
       <c r="AC8" t="n">
-        <v>92.0187330104017</v>
+        <v>104.2843421795235</v>
       </c>
       <c r="AD8" t="n">
-        <v>74348.91015299925</v>
+        <v>84259.22563173756</v>
       </c>
       <c r="AE8" t="n">
-        <v>101727.4589137159</v>
+        <v>115287.1897639809</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.647861883239189e-06</v>
+        <v>1.168003108548662e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.213975694444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>92018.7330104017</v>
+        <v>104284.3421795235</v>
       </c>
     </row>
   </sheetData>
@@ -24899,28 +24899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.3285042494229</v>
+        <v>230.1894496299413</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.0476120980533</v>
+        <v>314.9553602253356</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.3244715750978</v>
+        <v>284.8964626881473</v>
       </c>
       <c r="AD2" t="n">
-        <v>189328.5042494229</v>
+        <v>230189.4496299413</v>
       </c>
       <c r="AE2" t="n">
-        <v>259047.6120980533</v>
+        <v>314955.3602253356</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.444221816500989e-06</v>
+        <v>5.889235473886751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.978732638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>234324.4715750978</v>
+        <v>284896.4626881473</v>
       </c>
     </row>
     <row r="3">
@@ -25005,28 +25005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.4388793473655</v>
+        <v>137.8694415461758</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.6850557606936</v>
+        <v>188.6390522938832</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.3494995618295</v>
+        <v>170.6356058995808</v>
       </c>
       <c r="AD3" t="n">
-        <v>117438.8793473655</v>
+        <v>137869.4415461758</v>
       </c>
       <c r="AE3" t="n">
-        <v>160685.0557606936</v>
+        <v>188639.0522938832</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.009897963365565e-06</v>
+        <v>8.566367202324758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.110243055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>145349.4995618295</v>
+        <v>170635.6058995808</v>
       </c>
     </row>
     <row r="4">
@@ -25111,28 +25111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.45134602204105</v>
+        <v>115.9671595668719</v>
       </c>
       <c r="AB4" t="n">
-        <v>130.6007426434902</v>
+        <v>158.6713838293289</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.1363910649236</v>
+        <v>143.5280096533872</v>
       </c>
       <c r="AD4" t="n">
-        <v>95451.34602204105</v>
+        <v>115967.1595668719</v>
       </c>
       <c r="AE4" t="n">
-        <v>130600.7426434901</v>
+        <v>158671.3838293289</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.575947918880881e-06</v>
+        <v>9.53424954429292e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.693576388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>118136.3910649236</v>
+        <v>143528.0096533872</v>
       </c>
     </row>
     <row r="5">
@@ -25217,28 +25217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.01515806505911</v>
+        <v>110.5309716098899</v>
       </c>
       <c r="AB5" t="n">
-        <v>123.1627104530647</v>
+        <v>151.2333516389035</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.4082342274063</v>
+        <v>136.7998528158699</v>
       </c>
       <c r="AD5" t="n">
-        <v>90015.15806505911</v>
+        <v>110530.9716098899</v>
       </c>
       <c r="AE5" t="n">
-        <v>123162.7104530647</v>
+        <v>151233.3516389035</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.881510510123013e-06</v>
+        <v>1.005672752268982e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.500434027777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>111408.2342274063</v>
+        <v>136799.8528158699</v>
       </c>
     </row>
     <row r="6">
@@ -25323,28 +25323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.41400749621752</v>
+        <v>106.7592288404562</v>
       </c>
       <c r="AB6" t="n">
-        <v>118.2354573732276</v>
+        <v>146.0726867842195</v>
       </c>
       <c r="AC6" t="n">
-        <v>106.9512312660642</v>
+        <v>132.1317145718768</v>
       </c>
       <c r="AD6" t="n">
-        <v>86414.00749621753</v>
+        <v>106759.2288404562</v>
       </c>
       <c r="AE6" t="n">
-        <v>118235.4573732276</v>
+        <v>146072.6867842195</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.081929203509156e-06</v>
+        <v>1.039942115324082e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.385416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>106951.2312660642</v>
+        <v>132131.7145718767</v>
       </c>
     </row>
     <row r="7">
@@ -25429,28 +25429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>84.24709498523141</v>
+        <v>104.5923163294701</v>
       </c>
       <c r="AB7" t="n">
-        <v>115.2705920782649</v>
+        <v>143.1078214892567</v>
       </c>
       <c r="AC7" t="n">
-        <v>104.2693285536372</v>
+        <v>129.4498118594497</v>
       </c>
       <c r="AD7" t="n">
-        <v>84247.09498523141</v>
+        <v>104592.3163294701</v>
       </c>
       <c r="AE7" t="n">
-        <v>115270.5920782649</v>
+        <v>143107.8214892567</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.191533176454704e-06</v>
+        <v>1.058683173244841e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.326822916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>104269.3285536372</v>
+        <v>129449.8118594497</v>
       </c>
     </row>
     <row r="8">
@@ -25535,28 +25535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>82.10791728326448</v>
+        <v>92.36591356423095</v>
       </c>
       <c r="AB8" t="n">
-        <v>112.3436747725756</v>
+        <v>126.3791178350433</v>
       </c>
       <c r="AC8" t="n">
-        <v>101.6217521276477</v>
+        <v>114.317672203106</v>
       </c>
       <c r="AD8" t="n">
-        <v>82107.91728326448</v>
+        <v>92365.91356423096</v>
       </c>
       <c r="AE8" t="n">
-        <v>112343.6747725756</v>
+        <v>126379.1178350433</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.286428391126174e-06</v>
+        <v>1.074909197418657e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.276909722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>101621.7521276477</v>
+        <v>114317.672203106</v>
       </c>
     </row>
     <row r="9">
@@ -25641,28 +25641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>80.57123290433</v>
+        <v>90.82922918529647</v>
       </c>
       <c r="AB9" t="n">
-        <v>110.2411154115883</v>
+        <v>124.276558474056</v>
       </c>
       <c r="AC9" t="n">
-        <v>99.71985808111174</v>
+        <v>112.4157781565701</v>
       </c>
       <c r="AD9" t="n">
-        <v>80571.23290433</v>
+        <v>90829.22918529647</v>
       </c>
       <c r="AE9" t="n">
-        <v>110241.1154115883</v>
+        <v>124276.558474056</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.348679651950658e-06</v>
+        <v>1.085553469276681e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.244357638888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>99719.85808111174</v>
+        <v>112415.7781565701</v>
       </c>
     </row>
     <row r="10">
@@ -25747,28 +25747,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>79.86896819748132</v>
+        <v>90.1269644784478</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.2802458579461</v>
+        <v>123.3156889204139</v>
       </c>
       <c r="AC10" t="n">
-        <v>98.85069256908001</v>
+        <v>111.5466126445384</v>
       </c>
       <c r="AD10" t="n">
-        <v>79868.96819748133</v>
+        <v>90126.9644784478</v>
       </c>
       <c r="AE10" t="n">
-        <v>109280.2458579461</v>
+        <v>123315.6889204139</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.375440102488013e-06</v>
+        <v>1.090129208093697e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>98850.69256908001</v>
+        <v>111546.6126445384</v>
       </c>
     </row>
   </sheetData>
@@ -26044,28 +26044,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.7795192849745</v>
+        <v>69.05537621846881</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.21526675373295</v>
+        <v>94.48461225025984</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.32314304953624</v>
+        <v>85.4671334671044</v>
       </c>
       <c r="AD2" t="n">
-        <v>52779.51928497451</v>
+        <v>69055.37621846881</v>
       </c>
       <c r="AE2" t="n">
-        <v>72215.26675373295</v>
+        <v>94484.61225025984</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.736165634268198e-06</v>
+        <v>1.443870556787443e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.927951388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>65323.14304953624</v>
+        <v>85467.1334671044</v>
       </c>
     </row>
   </sheetData>
@@ -26341,28 +26341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.72896744419614</v>
+        <v>117.4002040483341</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.0853288717324</v>
+        <v>160.6321385103251</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.1929746777002</v>
+        <v>145.3016326595663</v>
       </c>
       <c r="AD2" t="n">
-        <v>98728.96744419614</v>
+        <v>117400.2040483341</v>
       </c>
       <c r="AE2" t="n">
-        <v>135085.3288717324</v>
+        <v>160632.1385103251</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.394587468898633e-06</v>
+        <v>9.939163466163324e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.203559027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>122192.9746777002</v>
+        <v>145301.6326595663</v>
       </c>
     </row>
     <row r="3">
@@ -26447,28 +26447,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.09359252114963</v>
+        <v>90.67948827071596</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.64163383222912</v>
+        <v>124.0716763486242</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.22741474370827</v>
+        <v>112.2304496936355</v>
       </c>
       <c r="AD3" t="n">
-        <v>72093.59252114964</v>
+        <v>90679.48827071597</v>
       </c>
       <c r="AE3" t="n">
-        <v>98641.63383222911</v>
+        <v>124071.6763486242</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.599817968372432e-06</v>
+        <v>1.215971935069353e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>89227.41474370827</v>
+        <v>112230.4496936355</v>
       </c>
     </row>
     <row r="4">
@@ -26553,28 +26553,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.13106311909685</v>
+        <v>76.50939660272716</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.85168217299807</v>
+        <v>104.6835317881674</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.08548654107508</v>
+        <v>94.69268243859082</v>
       </c>
       <c r="AD4" t="n">
-        <v>67131.06311909686</v>
+        <v>76509.39660272717</v>
       </c>
       <c r="AE4" t="n">
-        <v>91851.68217299807</v>
+        <v>104683.5317881674</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.974701926195231e-06</v>
+        <v>1.285041775147482e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.250868055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>83085.48654107508</v>
+        <v>94692.68243859083</v>
       </c>
     </row>
     <row r="5">
@@ -26659,28 +26659,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.05113087896882</v>
+        <v>76.42946436259913</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.74231535569339</v>
+        <v>104.5741649708627</v>
       </c>
       <c r="AC5" t="n">
-        <v>82.98655753931664</v>
+        <v>94.59375343683237</v>
       </c>
       <c r="AD5" t="n">
-        <v>67051.13087896882</v>
+        <v>76429.46436259913</v>
       </c>
       <c r="AE5" t="n">
-        <v>91742.3153556934</v>
+        <v>104574.1649708627</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.005323894314014e-06</v>
+        <v>1.290683666182578e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.237847222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>82986.55753931664</v>
+        <v>94593.75343683237</v>
       </c>
     </row>
   </sheetData>
@@ -26956,28 +26956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.2998775173731</v>
+        <v>149.3558293855083</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.5995996752273</v>
+        <v>204.3552348793172</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.8904448992582</v>
+        <v>184.8518580768669</v>
       </c>
       <c r="AD2" t="n">
-        <v>120299.8775173731</v>
+        <v>149355.8293855083</v>
       </c>
       <c r="AE2" t="n">
-        <v>164599.5996752273</v>
+        <v>204355.2348793172</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.634370349173398e-06</v>
+        <v>8.278964420418647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.711371527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>148890.4448992582</v>
+        <v>184851.8580768669</v>
       </c>
     </row>
     <row r="3">
@@ -27062,28 +27062,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.66467093511761</v>
+        <v>103.0921994169221</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.4736937981639</v>
+        <v>141.0552953490223</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.548485126935</v>
+        <v>127.5931759333</v>
       </c>
       <c r="AD3" t="n">
-        <v>83664.67093511761</v>
+        <v>103092.1994169221</v>
       </c>
       <c r="AE3" t="n">
-        <v>114473.6937981639</v>
+        <v>141055.2953490223</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.973152673157853e-06</v>
+        <v>1.067060134018481e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.656684027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>103548.485126935</v>
+        <v>127593.1759333</v>
       </c>
     </row>
     <row r="4">
@@ -27168,28 +27168,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.95764188432736</v>
+        <v>96.21457816553966</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.2968407576387</v>
+        <v>131.6450305336502</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.24745806080044</v>
+        <v>119.0810135845144</v>
       </c>
       <c r="AD4" t="n">
-        <v>76957.64188432736</v>
+        <v>96214.57816553966</v>
       </c>
       <c r="AE4" t="n">
-        <v>105296.8407576387</v>
+        <v>131645.0305336502</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.435814914847484e-06</v>
+        <v>1.149711367066845e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.391927083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>95247.45806080045</v>
+        <v>119081.0135845144</v>
       </c>
     </row>
     <row r="5">
@@ -27274,28 +27274,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>73.02066200730189</v>
+        <v>82.7345157567552</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.91009120260119</v>
+        <v>113.2010144475788</v>
       </c>
       <c r="AC5" t="n">
-        <v>90.37481232294355</v>
+        <v>102.3972685073526</v>
       </c>
       <c r="AD5" t="n">
-        <v>73020.6620073019</v>
+        <v>82734.51575675519</v>
       </c>
       <c r="AE5" t="n">
-        <v>99910.09120260119</v>
+        <v>113201.0144475788</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.688578627575702e-06</v>
+        <v>1.194865759719627e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.263888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>90374.81232294356</v>
+        <v>102397.2685073526</v>
       </c>
     </row>
     <row r="6">
@@ -27380,28 +27380,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>71.46726611434904</v>
+        <v>81.18111986380234</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.78466641087402</v>
+        <v>111.0755896558516</v>
       </c>
       <c r="AC6" t="n">
-        <v>88.45223509028571</v>
+        <v>100.4746912746948</v>
       </c>
       <c r="AD6" t="n">
-        <v>71467.26611434904</v>
+        <v>81181.11986380233</v>
       </c>
       <c r="AE6" t="n">
-        <v>97784.66641087402</v>
+        <v>111075.5896558516</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.768674135271427e-06</v>
+        <v>1.209174237646224e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.226996527777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>88452.23509028571</v>
+        <v>100474.6912746948</v>
       </c>
     </row>
   </sheetData>
